--- a/data/BPS_FH_Dataset/12/chords.xlsx
+++ b/data/BPS_FH_Dataset/12/chords.xlsx
@@ -371,17 +371,17 @@
   </sheetPr>
   <dimension ref="A1:G375"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A352" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B376" activeCellId="0" sqref="B376"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A357" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E380" activeCellId="0" sqref="E380"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.58"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>-0.5</v>
       </c>
@@ -404,7 +404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1.5</v>
       </c>
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>3</v>
       </c>
@@ -450,7 +450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>4</v>
       </c>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4.5</v>
       </c>
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
@@ -519,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
@@ -565,7 +565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>7.5</v>
       </c>
@@ -588,7 +588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -611,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>8.5</v>
       </c>
@@ -634,7 +634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -657,7 +657,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>9.5</v>
       </c>
@@ -680,7 +680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>10</v>
       </c>
@@ -703,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>10.5</v>
       </c>
@@ -726,7 +726,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>11</v>
       </c>
@@ -749,7 +749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>12</v>
       </c>
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>13.5</v>
       </c>
@@ -795,7 +795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>15</v>
       </c>
@@ -818,7 +818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>16</v>
       </c>
@@ -841,7 +841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>16.5</v>
       </c>
@@ -864,7 +864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>17</v>
       </c>
@@ -887,7 +887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>18</v>
       </c>
@@ -910,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>19</v>
       </c>
@@ -933,7 +933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>19.5</v>
       </c>
@@ -956,7 +956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>20</v>
       </c>
@@ -979,7 +979,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>20.5</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>21.5</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>22</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>22.5</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>24</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>25.5</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>27</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>28.5</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>30.5</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>31</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>31.5</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>32</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>32.5</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>33</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>34</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>34.5</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>35</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>35.5</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>36</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>37</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>37.5</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>38</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>38.5</v>
       </c>
@@ -1508,9 +1508,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B50" s="1" t="n">
         <v>40.5</v>
@@ -1531,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>40.5</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>42</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>43</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>43.5</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>44</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>45</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>46</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>46.5</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>47</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>47.5</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>48.5</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="n">
         <v>49</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="n">
         <v>49.5</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>50.5</v>
       </c>
@@ -1853,7 +1853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>52.5</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>54</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>55</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>55.5</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>56</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>57</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>58</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>58.5</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>59</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>59.5</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>60</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>60.5</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>61</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>61.5</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>62</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>63</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>64.5</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>66</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>67</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>67.5</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>68</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>69</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>70</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>70.5</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>71</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>71.5</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>72</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>73</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>73.5</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>75</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>76.5</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>78</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>79.5</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>81.5</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>82</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>82.5</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>83</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>83.5</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>84</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>85</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>85.5</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>86.5</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>87</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>88</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>88.5</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>89</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>89.5</v>
       </c>
@@ -2934,7 +2934,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>90</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>91.5</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>93</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>94</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>94.5</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>95</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>96</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>97</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>97.5</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>98</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>98.5</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>99</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>100</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="n">
         <v>100.5</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>101.5</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>103.5</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>105</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>106</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>106.5</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>107</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>108</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>109</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>109.5</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>110</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>110.5</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>111</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>111.5</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>112</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>112.5</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>113</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>114</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>115.5</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>117</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>118</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>118.5</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>119</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>120</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>121</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>121.5</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>122</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>122.5</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>123</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>124</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>124.5</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>126</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>127.5</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>129</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>130.5</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>132</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>132.5</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>133</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>133.5</v>
       </c>
@@ -4130,7 +4130,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>134</v>
       </c>
@@ -4153,7 +4153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>134.5</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>135</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>136</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>136.5</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>137.5</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>138</v>
       </c>
@@ -4291,7 +4291,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>139</v>
       </c>
@@ -4314,7 +4314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>139.5</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>140</v>
       </c>
@@ -4360,9 +4360,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
-        <v>104.5</v>
+        <v>140.5</v>
       </c>
       <c r="B174" s="1" t="n">
         <v>141</v>
@@ -4383,7 +4383,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>141</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>142.5</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>144</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>145</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>145.5</v>
       </c>
@@ -4498,7 +4498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>146</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>147</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>148</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>148.5</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>149</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>149.5</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>150</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>151</v>
       </c>
@@ -4682,7 +4682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="n">
         <v>151.5</v>
       </c>
@@ -4705,7 +4705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>152.5</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>154.5</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>156</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>157.5</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>159</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>160.5</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>162</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>163.5</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>165</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>166.5</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>168</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>169.5</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>171</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>172.5</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>173.5</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>174</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>175</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>175.5</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>176.5</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>177.5</v>
       </c>
@@ -5165,7 +5165,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>178.5</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>180</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>181.5</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>183</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>184.5</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>186</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>187</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>187.5</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>188.5</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>189</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>190</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>190.5</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>191</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>192</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>193.5</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>195</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>196.5</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>198</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>199.5</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>200.5</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>201</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>202</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="n">
         <v>202.5</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>203.5</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>205.5</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>207</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>208.5</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>209</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>209.5</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>210</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>210.5</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>211</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>211.5</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>212</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>212.5</v>
       </c>
@@ -5970,7 +5970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>213</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>213.5</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>214</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>214.5</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>216</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>217.5</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>219</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <v>220.5</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>221</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>221.5</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>222</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>222.5</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>223</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>223.5</v>
       </c>
@@ -6292,7 +6292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>224</v>
       </c>
@@ -6315,7 +6315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>224.5</v>
       </c>
@@ -6338,7 +6338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <v>225</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>226</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>226.5</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>227.5</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>228</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <v>229</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>229.5</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>230.5</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>231</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>232</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>232.5</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>233.5</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>234</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>235</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>235.5</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>236.5</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>237</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>238</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>238.5</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>239.5</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>240</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>241</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>241.5</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>242</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <v>243</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <v>244.5</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <v>246</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>247.5</v>
       </c>
@@ -6982,7 +6982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <v>248</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <v>248.5</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <v>249</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>249.5</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <v>250</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <v>250.5</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <v>251</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <v>251.5</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>252</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
         <v>253</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="4" t="n">
         <v>253.5</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>254.5</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <v>256.5</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <v>258</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>259</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>259.5</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>260</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>260.5</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>261</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>262</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>262.5</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>263</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <v>263.5</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <v>264</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
         <v>264.5</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <v>265</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <v>265.5</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <v>267</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <v>268.5</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <v>270</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <v>271</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <v>271.5</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <v>272</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <v>272.5</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <v>273</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <v>274</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <v>274.5</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <v>275</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <v>275.5</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <v>276</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <v>277</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <v>277.5</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <v>279</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <v>279.5</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <v>280</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <v>280.5</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>282</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <v>282.5</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <v>283</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <v>283.5</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <v>285</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <v>285.5</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <v>286</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <v>286.5</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <v>287</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <v>287.5</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <v>288</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <v>289</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <v>289.5</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <v>290.5</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <v>291</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <v>292</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <v>292.5</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <v>293</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <v>293.5</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <v>294</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <v>295.5</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <v>297</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <v>298</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>298.5</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>299</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>299.5</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>300</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>301</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>301.5</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <v>302</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <v>302.5</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
         <v>303</v>
       </c>
@@ -8776,7 +8776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <v>304</v>
       </c>
@@ -8799,7 +8799,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <v>304.5</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <v>307.5</v>
       </c>
@@ -8845,7 +8845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <v>310.5</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <v>313.5</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <v>316.5</v>
       </c>
@@ -8914,7 +8914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <v>318</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
         <v>319.5</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <v>321</v>
       </c>
@@ -8983,7 +8983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <v>322.5</v>
       </c>
